--- a/Lexer/src/Tokens.xlsx
+++ b/Lexer/src/Tokens.xlsx
@@ -236,9 +236,6 @@
     <t>deviding</t>
   </si>
   <si>
-    <t>multipling</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>(true|false)</t>
+  </si>
+  <si>
+    <t>multiplying</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -407,21 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -475,19 +460,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -510,9 +482,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -522,13 +505,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -537,59 +516,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -598,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,34 +570,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,15 +876,15 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -954,7 +892,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -968,7 +906,7 @@
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -982,7 +920,7 @@
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -996,11 +934,11 @@
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>2</v>
@@ -1014,25 +952,25 @@
       <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1040,13 +978,13 @@
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="1"/>
@@ -1055,28 +993,28 @@
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="M10" s="1"/>
@@ -1085,13 +1023,13 @@
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="29">
         <v>1234</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="31" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="1"/>
@@ -1100,7 +1038,7 @@
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1115,7 +1053,7 @@
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1126,75 +1064,75 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>36</v>
@@ -1203,101 +1141,101 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>36</v>
@@ -1305,13 +1243,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>36</v>
@@ -1319,63 +1257,63 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
@@ -1383,7 +1321,7 @@
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
